--- a/dtpu_configurations/only_integer16/50mhz/mxu_14x14/utilization.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_14x14/utilization.xlsx
@@ -154,13 +154,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>25.90225601196289</v>
+        <v>33.6184196472168</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>6.264367580413818</v>
+        <v>7.183907985687256</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>18.899436950683594</v>
+        <v>24.858083724975586</v>
       </c>
       <c r="E2" t="n" s="4">
         <v>57.85714340209961</v>
